--- a/Training/DRL_Routing_Summary_New.xlsx
+++ b/Training/DRL_Routing_Summary_New.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,82 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>2304.84659023</v>
+        <v>6824.474249238334</v>
       </c>
       <c r="C2">
-        <v>1449</v>
+        <v>5299.866666666667</v>
       </c>
       <c r="D2">
-        <v>1071.8</v>
+        <v>2633.888888888889</v>
       </c>
       <c r="E2">
-        <v>1022.2</v>
+        <v>2467.066666666667</v>
       </c>
       <c r="F2">
-        <v>1112.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>4162.2426601592</v>
-      </c>
-      <c r="C3">
-        <v>3035.4</v>
-      </c>
-      <c r="D3">
-        <v>1832.636363636364</v>
-      </c>
-      <c r="E3">
-        <v>1426.2</v>
-      </c>
-      <c r="F3">
-        <v>1574.266666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>4171.7155534059</v>
-      </c>
-      <c r="C4">
-        <v>2969.15</v>
-      </c>
-      <c r="D4">
-        <v>2596.4</v>
-      </c>
-      <c r="E4">
-        <v>1134.95</v>
-      </c>
-      <c r="F4">
-        <v>1154.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>4481.61069452296</v>
-      </c>
-      <c r="C5">
-        <v>2850.88</v>
-      </c>
-      <c r="D5">
-        <v>2624.125</v>
-      </c>
-      <c r="E5">
-        <v>999.5599999999999</v>
-      </c>
-      <c r="F5">
-        <v>1024.52</v>
+        <v>2503.3</v>
       </c>
     </row>
   </sheetData>

--- a/Training/DRL_Routing_Summary_New.xlsx
+++ b/Training/DRL_Routing_Summary_New.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +426,33 @@
         <v>5299.866666666667</v>
       </c>
       <c r="D2">
-        <v>2633.888888888889</v>
+        <v>2893.363636363636</v>
       </c>
       <c r="E2">
         <v>2467.066666666667</v>
       </c>
       <c r="F2">
         <v>2503.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>8418.984083831101</v>
+      </c>
+      <c r="C3">
+        <v>7162.65</v>
+      </c>
+      <c r="D3">
+        <v>4270</v>
+      </c>
+      <c r="E3">
+        <v>3811.475</v>
+      </c>
+      <c r="F3">
+        <v>3883.7</v>
       </c>
     </row>
   </sheetData>

--- a/Training/DRL_Routing_Summary_New.xlsx
+++ b/Training/DRL_Routing_Summary_New.xlsx
@@ -447,37 +447,37 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>2356</v>
+        <v>1292.8</v>
       </c>
       <c r="C2">
-        <v>1969.266666666667</v>
+        <v>1106.1</v>
       </c>
       <c r="D2">
-        <v>1019.666666666667</v>
+        <v>373.1</v>
       </c>
       <c r="E2">
-        <v>1061</v>
+        <v>497.3</v>
       </c>
       <c r="F2">
-        <v>2119.8</v>
+        <v>1157.2</v>
       </c>
       <c r="G2">
-        <v>0.4312157948811849</v>
+        <v>0.1435470581054688</v>
       </c>
       <c r="H2">
-        <v>0.005905628204345703</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00130151112874349</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001901817321777344</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.330525668462117</v>
+        <v>0.5085859775543213</v>
       </c>
     </row>
   </sheetData>
